--- a/mbs-perturbation/chatty/knn/smote/chatty-knn-smote-results.xlsx
+++ b/mbs-perturbation/chatty/knn/smote/chatty-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7900355871886121</v>
+        <v>0.888030888030888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.961038961038961</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8671875</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9248823640127989</v>
+        <v>0.9345191040843216</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8345588235294118</v>
+        <v>0.9620253164556962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9869565217391304</v>
+        <v>0.991304347826087</v>
       </c>
       <c r="D3" t="n">
-        <v>0.904382470119522</v>
+        <v>0.9764453961456103</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9636363636363636</v>
+        <v>0.9865047995482777</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9372384937238494</v>
+        <v>0.9465020576131687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9739130434782609</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.955223880597015</v>
+        <v>0.9725158562367865</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9950945179584122</v>
+        <v>0.9823629489603025</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9451476793248945</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9739130434782609</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9593147751605995</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E5" t="n">
-        <v>0.991843100189036</v>
+        <v>0.9977882797731569</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0.9847494553376905</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999461247637051</v>
+        <v>0.9910869565217391</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8987760294171091</v>
+        <v>0.9558257642179052</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9756860530773575</v>
+        <v>0.9939168078298513</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9341716162429655</v>
+        <v>0.9740634041054411</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9749835186867323</v>
+        <v>0.9784524177775596</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/knn/smote/chatty-knn-smote-results.xlsx
+++ b/mbs-perturbation/chatty/knn/smote/chatty-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.888030888030888</v>
+        <v>0.7582417582417582</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9387755102040817</v>
+        <v>0.8624999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9345191040843216</v>
+        <v>0.8306159420289856</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9620253164556962</v>
+        <v>0.9671361502347418</v>
       </c>
       <c r="C3" t="n">
-        <v>0.991304347826087</v>
+        <v>0.9951690821256038</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9764453961456103</v>
+        <v>0.9809523809523809</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9865047995482777</v>
+        <v>0.9820234113712375</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9465020576131687</v>
+        <v>0.9627906976744186</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9725158562367865</v>
+        <v>0.9787234042553192</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9823629489603025</v>
+        <v>0.9821279264214047</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9952153110047847</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.9976019184652278</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9977882797731569</v>
+        <v>0.9973522853957637</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9868995633187773</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9826086956521739</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9847494553376905</v>
+        <v>0.9927007299270074</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9910869565217391</v>
+        <v>0.9975495344115382</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9558257642179052</v>
+        <v>0.9366767834311407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9939168078298513</v>
+        <v>0.9951737272389446</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9740634041054411</v>
+        <v>0.962495686719987</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9784524177775596</v>
+        <v>0.957933819925786</v>
       </c>
     </row>
   </sheetData>
